--- a/runs/run219/NotionalETEOutput219.xlsx
+++ b/runs/run219/NotionalETEOutput219.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND1_State_Update</t>
+    <t>Missile_BRAVER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1_469.MISSILE_HIGHWIND1_469</t>
+    <t>MISSILE_BRAVER3_396.MISSILE_BRAVER3_396</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND1</t>
+    <t>MISSILE_BRAVER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1532.829165534413</v>
+        <v>-1485.607613588773</v>
       </c>
       <c r="J2">
-        <v>2020.067346189</v>
+        <v>1970.84640381627</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1508.877093334504</v>
+        <v>-1538.654586667289</v>
       </c>
       <c r="J3">
-        <v>2017.18000614392</v>
+        <v>2016.280457631065</v>
       </c>
       <c r="K3">
-        <v>312.3285799556046</v>
+        <v>298.3033553342936</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1389.05234678343</v>
+        <v>-1394.629897839989</v>
       </c>
       <c r="J4">
-        <v>1926.976438671297</v>
+        <v>1818.22652515137</v>
       </c>
       <c r="K4">
-        <v>586.9642862572019</v>
+        <v>566.7268292884428</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1363.596483540458</v>
+        <v>-1395.142033373158</v>
       </c>
       <c r="J5">
-        <v>1847.736713693465</v>
+        <v>1909.145304252302</v>
       </c>
       <c r="K5">
-        <v>877.3610502257836</v>
+        <v>868.8786643397838</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1379.257306142764</v>
+        <v>-1387.080347440453</v>
       </c>
       <c r="J6">
-        <v>1814.014206433578</v>
+        <v>1723.781796729353</v>
       </c>
       <c r="K6">
-        <v>1071.672725421558</v>
+        <v>1158.687844038321</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1348.728245031532</v>
+        <v>-1400.093173909823</v>
       </c>
       <c r="J7">
-        <v>1669.450543515003</v>
+        <v>1700.540737091778</v>
       </c>
       <c r="K7">
-        <v>1323.921439460313</v>
+        <v>1383.624578392858</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1325.570424454644</v>
+        <v>-1271.689673411489</v>
       </c>
       <c r="J8">
-        <v>1711.99004359859</v>
+        <v>1764.964175998307</v>
       </c>
       <c r="K8">
-        <v>1588.530506374815</v>
+        <v>1563.161146568422</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.3717276997552</v>
+        <v>-98.48524733541171</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1218.632687013722</v>
+        <v>-1320.123281671742</v>
       </c>
       <c r="J9">
-        <v>1707.31858271722</v>
+        <v>1738.059319427291</v>
       </c>
       <c r="K9">
-        <v>1730.384327724385</v>
+        <v>1842.072339293392</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.3652537327059</v>
+        <v>216.0743168116671</v>
       </c>
       <c r="G10">
-        <v>-80.66852257781684</v>
+        <v>-81.66281660741076</v>
       </c>
       <c r="H10">
-        <v>844.4139792514611</v>
+        <v>836.5508621994287</v>
       </c>
       <c r="I10">
-        <v>-1275.640847123851</v>
+        <v>-1258.189159094612</v>
       </c>
       <c r="J10">
-        <v>1594.682043489543</v>
+        <v>1672.034786898439</v>
       </c>
       <c r="K10">
-        <v>2065.722585541015</v>
+        <v>2087.203733076693</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>176.4778519934355</v>
+        <v>173.0123456680545</v>
       </c>
       <c r="G11">
-        <v>-65.26007740043657</v>
+        <v>-67.54411717453834</v>
       </c>
       <c r="H11">
-        <v>1009.313454511648</v>
+        <v>1097.40966570973</v>
       </c>
       <c r="I11">
-        <v>-1194.84644675616</v>
+        <v>-1194.691327365529</v>
       </c>
       <c r="J11">
-        <v>1559.585888312856</v>
+        <v>1599.321958782509</v>
       </c>
       <c r="K11">
-        <v>2212.186420365928</v>
+        <v>2103.516967318155</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.9995337009693</v>
+        <v>142.370742850131</v>
       </c>
       <c r="G12">
-        <v>-48.9599108886591</v>
+        <v>-48.94646637884694</v>
       </c>
       <c r="H12">
-        <v>1128.431461665166</v>
+        <v>1139.698344861821</v>
       </c>
       <c r="I12">
-        <v>-1157.933005315772</v>
+        <v>-1164.22404337979</v>
       </c>
       <c r="J12">
-        <v>1583.505728528514</v>
+        <v>1554.126568167161</v>
       </c>
       <c r="K12">
-        <v>2402.752065649951</v>
+        <v>2320.164674113009</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.9619792301131</v>
+        <v>118.8525879542088</v>
       </c>
       <c r="G13">
-        <v>-34.51567523137201</v>
+        <v>-35.17558090770586</v>
       </c>
       <c r="H13">
-        <v>1306.936794991991</v>
+        <v>1227.456730402866</v>
       </c>
       <c r="I13">
-        <v>-1174.159612841839</v>
+        <v>-1131.694419675614</v>
       </c>
       <c r="J13">
-        <v>1436.071261267535</v>
+        <v>1518.702070961287</v>
       </c>
       <c r="K13">
-        <v>2552.340701838352</v>
+        <v>2447.089452724546</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.493682457246</v>
+        <v>112.4948017528128</v>
       </c>
       <c r="G14">
-        <v>-17.86569603409635</v>
+        <v>-16.63096114190269</v>
       </c>
       <c r="H14">
-        <v>1355.06478843415</v>
+        <v>1267.527712032473</v>
       </c>
       <c r="I14">
-        <v>-1104.143169819563</v>
+        <v>-1047.217727688637</v>
       </c>
       <c r="J14">
-        <v>1372.168188973573</v>
+        <v>1470.20729771245</v>
       </c>
       <c r="K14">
-        <v>2704.028098423874</v>
+        <v>2753.314928518012</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.6466043472379</v>
+        <v>104.5049352093518</v>
       </c>
       <c r="G15">
-        <v>-0.9691261322114219</v>
+        <v>-0.9435679491423921</v>
       </c>
       <c r="H15">
-        <v>1368.231789411504</v>
+        <v>1447.333151421456</v>
       </c>
       <c r="I15">
-        <v>-1008.466751000307</v>
+        <v>-1044.471746118108</v>
       </c>
       <c r="J15">
-        <v>1408.972689211624</v>
+        <v>1329.951250130974</v>
       </c>
       <c r="K15">
-        <v>2859.111994866224</v>
+        <v>2864.764722625524</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>97.26863901345249</v>
+        <v>95.89505182606322</v>
       </c>
       <c r="G16">
-        <v>15.22240566561327</v>
+        <v>16.24048992724041</v>
       </c>
       <c r="H16">
-        <v>1357.88266602007</v>
+        <v>1377.747251809216</v>
       </c>
       <c r="I16">
-        <v>-1049.798010269085</v>
+        <v>-1035.822429188041</v>
       </c>
       <c r="J16">
-        <v>1383.093093821758</v>
+        <v>1259.832139810023</v>
       </c>
       <c r="K16">
-        <v>2840.229588791307</v>
+        <v>2785.38028005982</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>91.0404201383779</v>
+        <v>88.82590807449544</v>
       </c>
       <c r="G17">
-        <v>33.42953773103276</v>
+        <v>32.32246327024838</v>
       </c>
       <c r="H17">
-        <v>1441.146643682289</v>
+        <v>1486.892501824414</v>
       </c>
       <c r="I17">
-        <v>-959.9774170848629</v>
+        <v>-978.3867103900911</v>
       </c>
       <c r="J17">
-        <v>1233.894380924845</v>
+        <v>1247.615270442304</v>
       </c>
       <c r="K17">
-        <v>2833.748562752531</v>
+        <v>2933.822883814988</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>83.16661369181234</v>
+        <v>84.4363947309118</v>
       </c>
       <c r="G18">
-        <v>49.43035787195512</v>
+        <v>48.25634288479674</v>
       </c>
       <c r="H18">
-        <v>1509.477607152432</v>
+        <v>1525.423726757667</v>
       </c>
       <c r="I18">
-        <v>-922.7570889129274</v>
+        <v>-956.8874960752324</v>
       </c>
       <c r="J18">
-        <v>1240.192912217206</v>
+        <v>1268.63914098436</v>
       </c>
       <c r="K18">
-        <v>3085.865113613686</v>
+        <v>2905.787486300627</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.76522942216879</v>
+        <v>75.97295679439621</v>
       </c>
       <c r="G19">
-        <v>66.01478231986563</v>
+        <v>64.02526335219997</v>
       </c>
       <c r="H19">
-        <v>1509.721617431625</v>
+        <v>1522.14124069222</v>
       </c>
       <c r="I19">
-        <v>-879.4492567837979</v>
+        <v>-900.9303318603515</v>
       </c>
       <c r="J19">
-        <v>1118.763744984886</v>
+        <v>1198.583441794947</v>
       </c>
       <c r="K19">
-        <v>3245.063413790012</v>
+        <v>3138.933014638422</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.37158660583256</v>
+        <v>73.10370856531215</v>
       </c>
       <c r="G20">
-        <v>84.84983172777197</v>
+        <v>82.04804168928288</v>
       </c>
       <c r="H20">
-        <v>1638.480882611354</v>
+        <v>1488.312645542123</v>
       </c>
       <c r="I20">
-        <v>-855.781115637694</v>
+        <v>-797.5526327013965</v>
       </c>
       <c r="J20">
-        <v>1162.67056754662</v>
+        <v>1133.667973588516</v>
       </c>
       <c r="K20">
-        <v>3146.602837631023</v>
+        <v>3049.952802425841</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.11536827762627</v>
+        <v>71.43379039270425</v>
       </c>
       <c r="G21">
-        <v>96.07631858664504</v>
+        <v>102.8713333783161</v>
       </c>
       <c r="H21">
-        <v>1615.726429490363</v>
+        <v>1550.80302428461</v>
       </c>
       <c r="I21">
-        <v>-775.3536391061873</v>
+        <v>-768.2389430902393</v>
       </c>
       <c r="J21">
-        <v>1097.676061361446</v>
+        <v>1128.373123423919</v>
       </c>
       <c r="K21">
-        <v>3170.207781038067</v>
+        <v>3031.859373180906</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.49653680278996</v>
+        <v>66.99716622936646</v>
       </c>
       <c r="G22">
-        <v>113.7784644603944</v>
+        <v>117.8547921722471</v>
       </c>
       <c r="H22">
-        <v>1685.154531867553</v>
+        <v>1533.652361314462</v>
       </c>
       <c r="I22">
-        <v>-728.8615825220459</v>
+        <v>-723.5787653667627</v>
       </c>
       <c r="J22">
-        <v>1051.870016512822</v>
+        <v>1060.22667235715</v>
       </c>
       <c r="K22">
-        <v>3336.639789053121</v>
+        <v>3208.546712571906</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.57909232446223</v>
+        <v>66.8345112436136</v>
       </c>
       <c r="G23">
-        <v>128.7819267348649</v>
+        <v>124.7716418999123</v>
       </c>
       <c r="H23">
-        <v>1604.749011132823</v>
+        <v>1629.929533504107</v>
       </c>
       <c r="I23">
-        <v>-720.730661532806</v>
+        <v>-692.6103494894496</v>
       </c>
       <c r="J23">
-        <v>956.947993212157</v>
+        <v>973.1069735209636</v>
       </c>
       <c r="K23">
-        <v>3297.484658569251</v>
+        <v>3144.495685403288</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.69382601144475</v>
+        <v>60.33294510269231</v>
       </c>
       <c r="G24">
-        <v>146.4488841523419</v>
+        <v>145.5149836499327</v>
       </c>
       <c r="H24">
-        <v>1583.427513470649</v>
+        <v>1690.472301217027</v>
       </c>
       <c r="I24">
-        <v>-616.9291144009505</v>
+        <v>-622.1908441053334</v>
       </c>
       <c r="J24">
-        <v>927.705882503416</v>
+        <v>936.9927489426224</v>
       </c>
       <c r="K24">
-        <v>3025.768954359267</v>
+        <v>3045.317000684719</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.01757598499323</v>
+        <v>61.72049629325367</v>
       </c>
       <c r="G25">
-        <v>162.5248878708241</v>
+        <v>169.7058107099453</v>
       </c>
       <c r="H25">
-        <v>1643.716038675928</v>
+        <v>1603.58632822116</v>
       </c>
       <c r="I25">
-        <v>-619.5042041812999</v>
+        <v>-573.9497501883883</v>
       </c>
       <c r="J25">
-        <v>897.6191664883595</v>
+        <v>906.7938753763274</v>
       </c>
       <c r="K25">
-        <v>3292.41123202657</v>
+        <v>3100.92625840638</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.43005555754716</v>
+        <v>57.26836707390441</v>
       </c>
       <c r="G26">
-        <v>185.1549039324661</v>
+        <v>186.0910147661021</v>
       </c>
       <c r="H26">
-        <v>1769.809544514079</v>
+        <v>1771.48162093173</v>
       </c>
       <c r="I26">
-        <v>-537.951442819197</v>
+        <v>-535.9478893161414</v>
       </c>
       <c r="J26">
-        <v>842.9075400920958</v>
+        <v>860.532490227704</v>
       </c>
       <c r="K26">
-        <v>3220.449308175614</v>
+        <v>3068.840967970811</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.66762737766204</v>
+        <v>56.38890861774264</v>
       </c>
       <c r="G27">
-        <v>193.6159062098156</v>
+        <v>188.9258921774999</v>
       </c>
       <c r="H27">
-        <v>1726.67985761149</v>
+        <v>1715.795970011448</v>
       </c>
       <c r="I27">
-        <v>-504.8306714393795</v>
+        <v>-482.0001458371769</v>
       </c>
       <c r="J27">
-        <v>820.8465684710319</v>
+        <v>746.6760511417219</v>
       </c>
       <c r="K27">
-        <v>3008.492072346367</v>
+        <v>2959.687183606947</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.09769862599924</v>
+        <v>58.09347916795019</v>
       </c>
       <c r="G28">
-        <v>222.017836695371</v>
+        <v>205.9584987822104</v>
       </c>
       <c r="H28">
-        <v>1749.165921286478</v>
+        <v>1665.460222995045</v>
       </c>
       <c r="I28">
-        <v>-427.6558012893512</v>
+        <v>-459.0928631881642</v>
       </c>
       <c r="J28">
-        <v>699.3176434381683</v>
+        <v>737.767171757826</v>
       </c>
       <c r="K28">
-        <v>2836.674923096645</v>
+        <v>2893.148001719377</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.80714513290106</v>
+        <v>55.31644865355521</v>
       </c>
       <c r="G29">
-        <v>223.3026013992178</v>
+        <v>222.3986345967219</v>
       </c>
       <c r="H29">
-        <v>1709.451265549776</v>
+        <v>1684.194600517808</v>
       </c>
       <c r="I29">
-        <v>-374.0468154668586</v>
+        <v>-395.9432603162208</v>
       </c>
       <c r="J29">
-        <v>690.6286725912214</v>
+        <v>707.0803287297584</v>
       </c>
       <c r="K29">
-        <v>2768.900273793015</v>
+        <v>2804.394060075538</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.21095034552565</v>
+        <v>52.87468268248617</v>
       </c>
       <c r="G30">
-        <v>238.8966830703543</v>
+        <v>255.5315359542627</v>
       </c>
       <c r="H30">
-        <v>1670.114405458192</v>
+        <v>1723.576129992855</v>
       </c>
       <c r="I30">
-        <v>-319.7947676060731</v>
+        <v>-313.8031751397001</v>
       </c>
       <c r="J30">
-        <v>645.8682223307621</v>
+        <v>647.7689048276626</v>
       </c>
       <c r="K30">
-        <v>2842.66287771877</v>
+        <v>2854.616138008661</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.4917551980834</v>
+        <v>52.53495460192065</v>
       </c>
       <c r="G31">
-        <v>251.0515168088193</v>
+        <v>256.4585100706452</v>
       </c>
       <c r="H31">
-        <v>1716.49756048296</v>
+        <v>1728.210132863073</v>
       </c>
       <c r="I31">
-        <v>-255.0126762655149</v>
+        <v>-267.7673544180597</v>
       </c>
       <c r="J31">
-        <v>572.2436659124913</v>
+        <v>615.5987252861941</v>
       </c>
       <c r="K31">
-        <v>2708.211558571947</v>
+        <v>2757.419536597264</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>50.69825486036929</v>
+        <v>48.78661018393643</v>
       </c>
       <c r="G32">
-        <v>274.3724890318794</v>
+        <v>270.8621928931335</v>
       </c>
       <c r="H32">
-        <v>1748.027521813896</v>
+        <v>1803.950617284733</v>
       </c>
       <c r="I32">
-        <v>-214.7941072284436</v>
+        <v>-215.2752196212059</v>
       </c>
       <c r="J32">
-        <v>546.1784778114049</v>
+        <v>542.9967509166285</v>
       </c>
       <c r="K32">
-        <v>2508.347413749726</v>
+        <v>2625.651274866228</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.90253611179725</v>
+        <v>52.36352269555606</v>
       </c>
       <c r="G33">
-        <v>301.80598852963</v>
+        <v>298.1330851658564</v>
       </c>
       <c r="H33">
-        <v>1861.027415020552</v>
+        <v>1763.930589415799</v>
       </c>
       <c r="I33">
-        <v>-150.2469983400188</v>
+        <v>-147.0545469057479</v>
       </c>
       <c r="J33">
-        <v>502.4762928749061</v>
+        <v>515.8147546062946</v>
       </c>
       <c r="K33">
-        <v>2306.69152198431</v>
+        <v>2442.107394537389</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.77582070279804</v>
+        <v>47.53324278653849</v>
       </c>
       <c r="G34">
-        <v>314.8260571844284</v>
+        <v>305.9518163867958</v>
       </c>
       <c r="H34">
-        <v>1772.391583123761</v>
+        <v>1881.072377320826</v>
       </c>
       <c r="I34">
-        <v>-79.97882333889953</v>
+        <v>-87.00885797073637</v>
       </c>
       <c r="J34">
-        <v>440.0530164950654</v>
+        <v>425.2620087745199</v>
       </c>
       <c r="K34">
-        <v>2236.115812031814</v>
+        <v>2197.420105758552</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.74967971780984</v>
+        <v>48.40977465146509</v>
       </c>
       <c r="G35">
-        <v>314.1649778452331</v>
+        <v>343.1933838954614</v>
       </c>
       <c r="H35">
-        <v>1810.967475177059</v>
+        <v>1859.881308084563</v>
       </c>
       <c r="I35">
-        <v>-17.97395024911981</v>
+        <v>-18.86696159428729</v>
       </c>
       <c r="J35">
-        <v>379.8076183926595</v>
+        <v>377.0840288854006</v>
       </c>
       <c r="K35">
-        <v>2045.582756445144</v>
+        <v>1971.504832337809</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>46.61776404635498</v>
+        <v>49.29853184076534</v>
       </c>
       <c r="G36">
-        <v>346.1653889331182</v>
+        <v>334.6179240506455</v>
       </c>
       <c r="H36">
-        <v>1749.634724835627</v>
+        <v>1913.683315343723</v>
       </c>
       <c r="I36">
-        <v>46.50374882796071</v>
+        <v>45.40700865422804</v>
       </c>
       <c r="J36">
-        <v>344.9137552801889</v>
+        <v>332.0801301044565</v>
       </c>
       <c r="K36">
-        <v>1907.372474919146</v>
+        <v>1830.441024404578</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.4649905413582</v>
+        <v>46.14283520112746</v>
       </c>
       <c r="G37">
-        <v>348.7884762465125</v>
+        <v>379.2126910643208</v>
       </c>
       <c r="H37">
-        <v>1774.23198460143</v>
+        <v>1835.376122537068</v>
       </c>
       <c r="I37">
-        <v>118.2307632684708</v>
+        <v>117.5130413557397</v>
       </c>
       <c r="J37">
-        <v>294.7322732432461</v>
+        <v>310.1911905365619</v>
       </c>
       <c r="K37">
-        <v>1576.092218458143</v>
+        <v>1571.891441065039</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>47.11971107681948</v>
+        <v>44.58104439563842</v>
       </c>
       <c r="G38">
-        <v>370.8932024037964</v>
+        <v>391.4272554739879</v>
       </c>
       <c r="H38">
-        <v>1849.891804337487</v>
+        <v>1920.407748557689</v>
       </c>
       <c r="I38">
-        <v>182.7268176138621</v>
+        <v>179.03995803616</v>
       </c>
       <c r="J38">
-        <v>248.4293557617743</v>
+        <v>239.8272280543027</v>
       </c>
       <c r="K38">
-        <v>1455.961390857318</v>
+        <v>1420.627150781978</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.89962606110267</v>
+        <v>45.1595239996282</v>
       </c>
       <c r="G39">
-        <v>408.1310165912096</v>
+        <v>405.1575396292379</v>
       </c>
       <c r="H39">
-        <v>1902.015873445957</v>
+        <v>1808.44508420186</v>
       </c>
       <c r="I39">
-        <v>267.863741302728</v>
+        <v>260.7174092145329</v>
       </c>
       <c r="J39">
-        <v>197.8750561059915</v>
+        <v>204.9958705364382</v>
       </c>
       <c r="K39">
-        <v>1150.812485078168</v>
+        <v>1147.227247226496</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.2863400562147</v>
+        <v>46.20064723948572</v>
       </c>
       <c r="G40">
-        <v>392.962643198511</v>
+        <v>409.5628692718877</v>
       </c>
       <c r="H40">
-        <v>1883.053938905012</v>
+        <v>1868.172513651473</v>
       </c>
       <c r="I40">
-        <v>343.5751037611527</v>
+        <v>342.2829318776409</v>
       </c>
       <c r="J40">
-        <v>153.6275656740734</v>
+        <v>144.4619646820411</v>
       </c>
       <c r="K40">
-        <v>870.9711284545282</v>
+        <v>930.0137625472796</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.0761574167136</v>
+        <v>42.71359415680566</v>
       </c>
       <c r="G41">
-        <v>412.3857390798826</v>
+        <v>417.6052597881502</v>
       </c>
       <c r="H41">
-        <v>1966.948871734435</v>
+        <v>1871.673813022745</v>
       </c>
       <c r="I41">
-        <v>410.6176429532815</v>
+        <v>421.5967334517242</v>
       </c>
       <c r="J41">
-        <v>103.2083396183777</v>
+        <v>99.18889024402124</v>
       </c>
       <c r="K41">
-        <v>594.3974722110672</v>
+        <v>632.6477312965566</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.2602736266735</v>
+        <v>40.93469741451298</v>
       </c>
       <c r="G42">
-        <v>460.4205116319341</v>
+        <v>451.7925049317791</v>
       </c>
       <c r="H42">
-        <v>1936.388147644269</v>
+        <v>1925.991702413475</v>
       </c>
       <c r="I42">
-        <v>494.1342674569721</v>
+        <v>494.3824002825897</v>
       </c>
       <c r="J42">
-        <v>53.80502211354086</v>
+        <v>53.00251630274108</v>
       </c>
       <c r="K42">
-        <v>331.1081840027673</v>
+        <v>320.1590100100719</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.08180068342139</v>
+        <v>43.12822629990323</v>
       </c>
       <c r="G43">
-        <v>477.4912941628335</v>
+        <v>462.2052857545784</v>
       </c>
       <c r="H43">
-        <v>1942.60092359894</v>
+        <v>1853.2511091448</v>
       </c>
       <c r="I43">
-        <v>544.6751045178144</v>
+        <v>561.2476512144741</v>
       </c>
       <c r="J43">
-        <v>5.178504252497196</v>
+        <v>5.408418141019184</v>
       </c>
       <c r="K43">
-        <v>35.10122650649395</v>
+        <v>32.70211457300142</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.06303583423578</v>
+        <v>40.78249474473485</v>
       </c>
       <c r="G44">
-        <v>469.0982816539402</v>
+        <v>460.1776407593943</v>
       </c>
       <c r="H44">
-        <v>1958.265525243131</v>
+        <v>2003.576395813015</v>
       </c>
       <c r="I44">
-        <v>626.9767805251323</v>
+        <v>614.2106457928074</v>
       </c>
       <c r="J44">
-        <v>-42.7969784548509</v>
+        <v>-43.8361557800723</v>
       </c>
       <c r="K44">
-        <v>-286.1061959153259</v>
+        <v>-290.188977459148</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.08195227657687</v>
+        <v>39.61507761261777</v>
       </c>
       <c r="G45">
-        <v>503.587028636955</v>
+        <v>478.0108146736587</v>
       </c>
       <c r="H45">
-        <v>1876.715989835896</v>
+        <v>1995.366351998084</v>
       </c>
       <c r="I45">
-        <v>695.0961141830347</v>
+        <v>715.4003642128179</v>
       </c>
       <c r="J45">
-        <v>-88.31843822474575</v>
+        <v>-91.45242145990113</v>
       </c>
       <c r="K45">
-        <v>-621.6208363726857</v>
+        <v>-604.5464934415157</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>38.79021682862907</v>
+        <v>41.81627641109495</v>
       </c>
       <c r="G46">
-        <v>490.275150550591</v>
+        <v>524.6814175038212</v>
       </c>
       <c r="H46">
-        <v>1849.457001685895</v>
+        <v>1929.151034806863</v>
       </c>
       <c r="I46">
-        <v>797.2070121697876</v>
+        <v>835.1433633760216</v>
       </c>
       <c r="J46">
-        <v>-141.9454657861939</v>
+        <v>-146.1328974658186</v>
       </c>
       <c r="K46">
-        <v>-964.2945673111577</v>
+        <v>-924.9846148836996</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.59685592074259</v>
+        <v>39.20863990286936</v>
       </c>
       <c r="G47">
-        <v>541.9465143649536</v>
+        <v>549.1417725175328</v>
       </c>
       <c r="H47">
-        <v>1919.496065407168</v>
+        <v>1884.660210646087</v>
       </c>
       <c r="I47">
-        <v>854.3841228183885</v>
+        <v>848.4594694819344</v>
       </c>
       <c r="J47">
-        <v>-197.7774037161102</v>
+        <v>-186.6749256782966</v>
       </c>
       <c r="K47">
-        <v>-1372.42405942099</v>
+        <v>-1372.644864533932</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.16575019761218</v>
+        <v>38.01473448075085</v>
       </c>
       <c r="G48">
-        <v>552.7279929955108</v>
+        <v>563.5448894354488</v>
       </c>
       <c r="H48">
-        <v>1925.67148296757</v>
+        <v>1891.988584571154</v>
       </c>
       <c r="I48">
-        <v>997.9602099127515</v>
+        <v>945.2760091877562</v>
       </c>
       <c r="J48">
-        <v>-245.2804140013887</v>
+        <v>-245.6054561993512</v>
       </c>
       <c r="K48">
-        <v>-1693.218363178801</v>
+        <v>-1645.133329622064</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.22842243370995</v>
+        <v>38.12529190544022</v>
       </c>
       <c r="G49">
-        <v>533.4840401803978</v>
+        <v>561.2918943079425</v>
       </c>
       <c r="H49">
-        <v>1941.870220556357</v>
+        <v>2004.041553760409</v>
       </c>
       <c r="I49">
-        <v>1080.664396442171</v>
+        <v>1056.473206872739</v>
       </c>
       <c r="J49">
-        <v>-288.0315455927961</v>
+        <v>-293.0796886483345</v>
       </c>
       <c r="K49">
-        <v>-2067.880555578796</v>
+        <v>-2051.056649874306</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.69554031808726</v>
+        <v>37.45779059632264</v>
       </c>
       <c r="G50">
-        <v>566.5910298803317</v>
+        <v>567.9862941265768</v>
       </c>
       <c r="H50">
-        <v>1964.580622555786</v>
+        <v>1933.777685877349</v>
       </c>
       <c r="I50">
-        <v>1164.187881660143</v>
+        <v>1200.561914642068</v>
       </c>
       <c r="J50">
-        <v>-332.4364691214446</v>
+        <v>-328.7999145690267</v>
       </c>
       <c r="K50">
-        <v>-2387.679832571126</v>
+        <v>-2521.49850255323</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.65813005701544</v>
+        <v>37.23314407863177</v>
       </c>
       <c r="G51">
-        <v>586.0516582948025</v>
+        <v>606.4454742301162</v>
       </c>
       <c r="H51">
-        <v>2048.708836220308</v>
+        <v>1883.119620936634</v>
       </c>
       <c r="I51">
-        <v>1209.289787574578</v>
+        <v>1276.025806025024</v>
       </c>
       <c r="J51">
-        <v>-388.8832898394978</v>
+        <v>-371.5125217238497</v>
       </c>
       <c r="K51">
-        <v>-3051.48542919949</v>
+        <v>-2833.504844345328</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.80692229080461</v>
+        <v>35.65998485231263</v>
       </c>
       <c r="G52">
-        <v>618.9705194825825</v>
+        <v>591.1734107122029</v>
       </c>
       <c r="H52">
-        <v>1971.50976377977</v>
+        <v>2037.446111221745</v>
       </c>
       <c r="I52">
-        <v>1422.177291246699</v>
+        <v>1351.296703211734</v>
       </c>
       <c r="J52">
-        <v>-445.9204251882377</v>
+        <v>-443.3963232357528</v>
       </c>
       <c r="K52">
-        <v>-3340.002980207228</v>
+        <v>-3397.745364054223</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.04812332490913</v>
+        <v>36.96302837707689</v>
       </c>
       <c r="G53">
-        <v>635.0329639008542</v>
+        <v>602.9388335895891</v>
       </c>
       <c r="H53">
-        <v>1896.266103274277</v>
+        <v>1988.957169656407</v>
       </c>
       <c r="I53">
-        <v>1450.206419940977</v>
+        <v>1427.588282290137</v>
       </c>
       <c r="J53">
-        <v>-464.5585592454811</v>
+        <v>-492.6080956944538</v>
       </c>
       <c r="K53">
-        <v>-3803.978861094005</v>
+        <v>-3711.995141479013</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>38.14990766901193</v>
+        <v>36.29867726087141</v>
       </c>
       <c r="G54">
-        <v>667.3151343914773</v>
+        <v>624.6079728690989</v>
       </c>
       <c r="H54">
-        <v>2012.269893792402</v>
+        <v>1933.772054654591</v>
       </c>
       <c r="I54">
-        <v>1583.944527034497</v>
+        <v>1617.432118163671</v>
       </c>
       <c r="J54">
-        <v>-521.3633367419902</v>
+        <v>-513.9916826840968</v>
       </c>
       <c r="K54">
-        <v>-4355.216220940115</v>
+        <v>-4471.609854504998</v>
       </c>
     </row>
   </sheetData>
